--- a/flask-server/courses.xlsx
+++ b/flask-server/courses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -28,61 +28,67 @@
     <t>Type</t>
   </si>
   <si>
-    <t>OOP</t>
+    <t>Semester</t>
+  </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>Object oriented programming</t>
   </si>
   <si>
     <t>Compulsory</t>
   </si>
   <si>
-    <t>DSA</t>
-  </si>
-  <si>
-    <t>DBMS</t>
-  </si>
-  <si>
-    <t>ASC</t>
-  </si>
-  <si>
-    <t>FP</t>
-  </si>
-  <si>
-    <t>AI</t>
-  </si>
-  <si>
-    <t>FLCD</t>
-  </si>
-  <si>
-    <t>OS</t>
-  </si>
-  <si>
-    <t>MOBILE</t>
-  </si>
-  <si>
-    <t>NET</t>
-  </si>
-  <si>
-    <t>AT</t>
+    <t>Data structures and algorithms</t>
+  </si>
+  <si>
+    <t>Database management systems</t>
+  </si>
+  <si>
+    <t>Computer systems architecture</t>
+  </si>
+  <si>
+    <t>Functional and logic programming</t>
+  </si>
+  <si>
+    <t>Artificial intelligence</t>
+  </si>
+  <si>
+    <t>Formal languages and compiler design</t>
+  </si>
+  <si>
+    <t>Operating systems</t>
+  </si>
+  <si>
+    <t>Mobile application programming</t>
+  </si>
+  <si>
+    <t>Computer networks</t>
+  </si>
+  <si>
+    <t>Android things</t>
   </si>
   <si>
     <t>Optional</t>
   </si>
   <si>
-    <t>IOT</t>
-  </si>
-  <si>
-    <t>SNA</t>
-  </si>
-  <si>
-    <t>DP</t>
-  </si>
-  <si>
-    <t>ACD</t>
-  </si>
-  <si>
-    <t>CH</t>
-  </si>
-  <si>
-    <t>EI</t>
+    <t>Computer science investigations -an iot perspective</t>
+  </si>
+  <si>
+    <t>Network and system administration</t>
+  </si>
+  <si>
+    <t>Design patterns</t>
+  </si>
+  <si>
+    <t>Advanced compiler design</t>
+  </si>
+  <si>
+    <t>History of computer science</t>
+  </si>
+  <si>
+    <t>Academic ethics and integrity (in computer science)</t>
   </si>
 </sst>
 </file>
@@ -463,16 +469,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="42.14785714285715" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -488,17 +496,29 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
@@ -506,23 +526,35 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="22.5">
+        <v>7</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
@@ -530,35 +562,53 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="23.25">
+        <v>7</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="23.25">
+        <v>7</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
@@ -566,11 +616,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3">
         <v>5</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
@@ -578,11 +634,17 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
@@ -590,23 +652,35 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21.75">
+        <v>7</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="3">
         <v>5</v>
+      </c>
+      <c r="F11" s="3">
+        <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
@@ -614,23 +688,35 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18">
+        <v>18</v>
+      </c>
+      <c r="E12" s="3">
+        <v>5</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="E13" s="3">
+        <v>5</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
@@ -638,23 +724,35 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="22.5">
+        <v>18</v>
+      </c>
+      <c r="E14" s="3">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="E15" s="3">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3">
+        <v>2</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
@@ -662,23 +760,35 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="23.25">
+        <v>18</v>
+      </c>
+      <c r="E16" s="3">
+        <v>5</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="E17" s="3">
+        <v>6</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
@@ -686,11 +796,17 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="E18" s="3">
+        <v>6</v>
+      </c>
+      <c r="F18" s="3">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/flask-server/courses.xlsx
+++ b/flask-server/courses.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18192" windowHeight="8508"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Worksheet"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
   <si>
     <t>ID</t>
   </si>
@@ -89,13 +89,66 @@
   </si>
   <si>
     <t>Academic ethics and integrity (in computer science)</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>https://www.cs.ubbcluj.ro/files/curricula/2021/syllabus/IE_sem2_MLE5006_en_iuliana_2021_6012.pdf</t>
+  </si>
+  <si>
+    <t>https://www.cs.ubbcluj.ro/files/curricula/2021/syllabus/IE_sem2_MLE5022_en_marianzsu_2021_6156.pdf</t>
+  </si>
+  <si>
+    <t>https://www.cs.ubbcluj.ro/files/curricula/2021/syllabus/IE_sem4_MLE5028_en_sabina_2021_6307.pdf</t>
+  </si>
+  <si>
+    <t>https://www.cs.ubbcluj.ro/files/curricula/2021/syllabus/IE_sem1_MLE5004_en_vancea_2021_6043.pdf</t>
+  </si>
+  <si>
+    <t>https://www.cs.ubbcluj.ro/files/curricula/2021/syllabus/IE_sem3_MLE5009_en_hfpop_2021_5976.pdf</t>
+  </si>
+  <si>
+    <t>https://www.cs.ubbcluj.ro/files/curricula/2021/syllabus/IE_sem4_MLE5029_en_mihoct_2021_5890.pdf</t>
+  </si>
+  <si>
+    <t>https://www.cs.ubbcluj.ro/files/curricula/2021/syllabus/IE_sem5_MLE5023_en_motogna_2021_5954.pdf</t>
+  </si>
+  <si>
+    <t>https://www.cs.ubbcluj.ro/files/curricula/2021/syllabus/IE_sem2_MLE5007_en_rares_2021_6056.pdf</t>
+  </si>
+  <si>
+    <t>https://www.cs.ubbcluj.ro/files/curricula/2021/syllabus/IE_sem5_MLE5078_en_dan_2021_6089.pdf</t>
+  </si>
+  <si>
+    <t>https://www.cs.ubbcluj.ro/files/curricula/2021/syllabus/IE_sem3_MLE5002_en_dadi_2021_6032.pdf</t>
+  </si>
+  <si>
+    <t>https://www.cs.ubbcluj.ro/files/curricula/2021/syllabus/IE_sem6_MLE5117_en_dan_2021_6259.pdf</t>
+  </si>
+  <si>
+    <t>https://www.cs.ubbcluj.ro/files/curricula/2021/syllabus/IE_sem6_MLE5164_en_mircea_2021_6662.pdf</t>
+  </si>
+  <si>
+    <t>https://www.cs.ubbcluj.ro/files/curricula/2021/syllabus/IE_sem6_MLE5072_en_radu.dragos_2021_5946.pdf</t>
+  </si>
+  <si>
+    <t>https://www.cs.ubbcluj.ro/files/curricula/2021/syllabus/IE_sem6_MLE8115_en_arthur_2021_6232.pdf</t>
+  </si>
+  <si>
+    <t>https://www.cs.ubbcluj.ro/files/curricula/2021/syllabus/IE_sem6_MLE5053_en_motogna_2021_5955.pdf</t>
+  </si>
+  <si>
+    <t>https://www.cs.ubbcluj.ro/files/curricula/2021/syllabus/IE_sem6_MLE7007_en_forest_2021_6179.pdf</t>
+  </si>
+  <si>
+    <t>https://www.cs.ubbcluj.ro/files/curricula/2021/syllabus/IE_sem6_MLE5159_en_motogna_2021_6476.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -139,43 +192,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -186,10 +235,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -227,71 +276,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -319,7 +368,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -342,11 +391,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -355,13 +404,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -371,7 +420,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -380,7 +429,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -389,7 +438,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -397,10 +446,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -469,21 +518,22 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="42.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="9" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="14.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.109375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,8 +552,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -520,8 +573,11 @@
       <c r="F2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -538,8 +594,11 @@
       <c r="F3" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -556,8 +615,11 @@
       <c r="F4" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -574,8 +636,11 @@
       <c r="F5" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -592,8 +657,11 @@
       <c r="F6" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -610,8 +678,11 @@
       <c r="F7" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -628,8 +699,11 @@
       <c r="F8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -646,8 +720,11 @@
       <c r="F9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -664,8 +741,11 @@
       <c r="F10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -682,8 +762,11 @@
       <c r="F11" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="G11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -700,8 +783,11 @@
       <c r="F12" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="G12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -718,8 +804,11 @@
       <c r="F13" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="G13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -736,8 +825,11 @@
       <c r="F14" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -754,8 +846,11 @@
       <c r="F15" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="G15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -772,8 +867,11 @@
       <c r="F16" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="G16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -790,8 +888,11 @@
       <c r="F17" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
+      <c r="G17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -807,6 +908,9 @@
       </c>
       <c r="F18" s="3">
         <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
